--- a/data/trans_orig/IP07A27_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4246572D-E952-4730-8A3C-A7E236F2309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C26FDADD-ABC3-43BF-A5F8-4C58FB5DEEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10B0839B-A763-4602-A2A2-3A1EAF4B199D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C99CC440-EBD7-4C0B-A3B8-28FCC40856FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -83,49 +83,52 @@
     <t>10,48%</t>
   </si>
   <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>12,99%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,42%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -134,445 +137,448 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -987,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354BDA40-C89D-4499-B9DF-CA5C2E11CDA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F11135-079F-451C-BD5B-F8232069F80B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,13 +1234,13 @@
         <v>746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1243,19 +1249,19 @@
         <v>746</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -1264,13 +1270,13 @@
         <v>2441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1279,13 +1285,13 @@
         <v>1753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1294,19 +1300,19 @@
         <v>4194</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>28</v>
@@ -1315,13 +1321,13 @@
         <v>23292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -1330,13 +1336,13 @@
         <v>22551</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -1345,13 +1351,13 @@
         <v>45843</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,13 +1372,13 @@
         <v>26621</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1381,13 +1387,13 @@
         <v>27983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1396,18 +1402,18 @@
         <v>54604</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1419,13 +1425,13 @@
         <v>10754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1434,13 +1440,13 @@
         <v>5883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1449,13 +1455,13 @@
         <v>16637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,13 +1476,13 @@
         <v>2257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1485,13 +1491,13 @@
         <v>4988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1500,13 +1506,13 @@
         <v>7244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,13 +1527,13 @@
         <v>12229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1536,13 +1542,13 @@
         <v>6411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1551,19 +1557,19 @@
         <v>18639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>44</v>
@@ -1572,13 +1578,13 @@
         <v>35409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1587,13 +1593,13 @@
         <v>17440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -1602,19 +1608,19 @@
         <v>52849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>265</v>
@@ -1623,13 +1629,13 @@
         <v>233571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>282</v>
@@ -1638,13 +1644,13 @@
         <v>214717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
@@ -1653,13 +1659,13 @@
         <v>448288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1680,13 @@
         <v>294220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>327</v>
@@ -1689,13 +1695,13 @@
         <v>249438</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>661</v>
@@ -1704,18 +1710,18 @@
         <v>543658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1727,13 +1733,13 @@
         <v>4342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1742,13 +1748,13 @@
         <v>2955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1757,13 +1763,13 @@
         <v>7297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1784,13 @@
         <v>725</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1793,13 +1799,13 @@
         <v>798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1808,13 +1814,13 @@
         <v>1523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1835,13 @@
         <v>6472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1844,13 +1850,13 @@
         <v>3819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1859,19 +1865,19 @@
         <v>10291</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>8</v>
@@ -1880,13 +1886,13 @@
         <v>6546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -1895,13 +1901,13 @@
         <v>5046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -1910,19 +1916,19 @@
         <v>11591</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>100</v>
@@ -1931,13 +1937,13 @@
         <v>79808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>98</v>
@@ -1946,13 +1952,13 @@
         <v>70400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -1961,13 +1967,13 @@
         <v>150208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1988,13 @@
         <v>97893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>114</v>
@@ -1997,13 +2003,13 @@
         <v>83017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
@@ -2012,13 +2018,13 @@
         <v>180910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2041,13 @@
         <v>15097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2050,13 +2056,13 @@
         <v>11770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2065,13 +2071,13 @@
         <v>26866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2092,13 @@
         <v>3870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2101,13 +2107,13 @@
         <v>5786</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2116,13 +2122,13 @@
         <v>9655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2143,13 @@
         <v>18701</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2152,13 +2158,13 @@
         <v>10976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -2167,19 +2173,19 @@
         <v>29677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>56</v>
@@ -2188,13 +2194,13 @@
         <v>44396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2203,13 +2209,13 @@
         <v>24239</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -2218,19 +2224,19 @@
         <v>68635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>393</v>
@@ -2239,13 +2245,13 @@
         <v>336671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>406</v>
@@ -2254,13 +2260,13 @@
         <v>307668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>799</v>
@@ -2269,13 +2275,13 @@
         <v>644339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2296,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2305,13 +2311,13 @@
         <v>360438</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2320,18 +2326,18 @@
         <v>779172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
